--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinajmaldin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinajmaldin/Desktop/linear regression script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB28043-AD80-7D44-B42E-515DB2927719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB1B633-68F6-184F-B304-6833764712B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{68FF1909-D424-4344-AA41-09DD2B5AF5FA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,12 +380,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -393,15 +393,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -417,15 +417,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
